--- a/Extra/ActiPASS-Diary-example.xlsx
+++ b/Extra/ActiPASS-Diary-example.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13350" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Exempeldata" sheetId="1" r:id="rId1"/>
+    <sheet name="ExampleData" sheetId="1" r:id="rId1"/>
     <sheet name="Instructions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -30,7 +30,7 @@
     <author>Peter Palm</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -192,13 +192,16 @@
   </si>
   <si>
     <t>The event code "X" can be used to exclude data from statistics module</t>
+  </si>
+  <si>
+    <t>ActiPASS Example diary file - Also See Instructions worksheet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +237,14 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -243,7 +254,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -251,19 +262,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -542,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F159"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,49 +576,27 @@
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1000001</v>
-      </c>
-      <c r="B2" s="1">
-        <v>42893</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.35069444444444442</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1000001</v>
-      </c>
-      <c r="B3" s="1">
-        <v>42893</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.3520833333333333</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -609,7 +610,7 @@
         <v>0.35069444444444442</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -620,10 +621,10 @@
         <v>42893</v>
       </c>
       <c r="C5" s="2">
-        <v>0.6875</v>
+        <v>0.3520833333333333</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -634,10 +635,10 @@
         <v>42893</v>
       </c>
       <c r="C6" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.35069444444444442</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -645,10 +646,10 @@
         <v>1000001</v>
       </c>
       <c r="B7" s="1">
-        <v>42894</v>
+        <v>42893</v>
       </c>
       <c r="C7" s="2">
-        <v>0.25</v>
+        <v>0.6875</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -659,13 +660,13 @@
         <v>1000001</v>
       </c>
       <c r="B8" s="1">
-        <v>42894</v>
+        <v>42893</v>
       </c>
       <c r="C8" s="2">
-        <v>0.34375</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -676,7 +677,7 @@
         <v>42894</v>
       </c>
       <c r="C9" s="2">
-        <v>0.6875</v>
+        <v>0.25</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>
@@ -690,13 +691,10 @@
         <v>42894</v>
       </c>
       <c r="C10" s="2">
-        <v>0.75</v>
+        <v>0.34375</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -707,7 +705,7 @@
         <v>42894</v>
       </c>
       <c r="C11" s="2">
-        <v>0.77083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>4</v>
@@ -721,10 +719,13 @@
         <v>42894</v>
       </c>
       <c r="C12" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -732,10 +733,10 @@
         <v>1000001</v>
       </c>
       <c r="B13" s="1">
-        <v>42895</v>
+        <v>42894</v>
       </c>
       <c r="C13" s="2">
-        <v>0.26041666666666669</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>4</v>
@@ -746,13 +747,13 @@
         <v>1000001</v>
       </c>
       <c r="B14" s="1">
-        <v>42898</v>
+        <v>42894</v>
       </c>
       <c r="C14" s="2">
-        <v>0.3125</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -760,10 +761,10 @@
         <v>1000001</v>
       </c>
       <c r="B15" s="1">
-        <v>42898</v>
+        <v>42895</v>
       </c>
       <c r="C15" s="2">
-        <v>0.67708333333333337</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>4</v>
@@ -774,10 +775,10 @@
         <v>1000001</v>
       </c>
       <c r="B16" s="1">
-        <v>42899</v>
+        <v>42898</v>
       </c>
       <c r="C16" s="2">
-        <v>0.34375</v>
+        <v>0.3125</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -788,27 +789,24 @@
         <v>1000001</v>
       </c>
       <c r="B17" s="1">
-        <v>42899</v>
+        <v>42898</v>
       </c>
       <c r="C17" s="2">
-        <v>0.70833333333333337</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="B18" s="1">
-        <v>42898</v>
+        <v>42899</v>
       </c>
       <c r="C18" s="2">
-        <v>0.3125</v>
+        <v>0.34375</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>3</v>
@@ -816,30 +814,33 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="B19" s="1">
-        <v>42898</v>
+        <v>42899</v>
       </c>
       <c r="C19" s="2">
-        <v>0.60416666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1000001</v>
+        <v>1000002</v>
       </c>
       <c r="B20" s="1">
-        <v>42893</v>
+        <v>42898</v>
       </c>
       <c r="C20" s="2">
-        <v>0.85416666666666663</v>
+        <v>0.3125</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -847,27 +848,27 @@
         <v>1000002</v>
       </c>
       <c r="B21" s="1">
-        <v>43258</v>
+        <v>42898</v>
       </c>
       <c r="C21" s="2">
-        <v>0.2673611111111111</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="B22" s="1">
-        <v>43258</v>
+        <v>42893</v>
       </c>
       <c r="C22" s="2">
-        <v>0.2673611111111111</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -878,10 +879,10 @@
         <v>43258</v>
       </c>
       <c r="C23" s="2">
-        <v>0.6875</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +893,10 @@
         <v>43258</v>
       </c>
       <c r="C24" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -906,7 +907,7 @@
         <v>43258</v>
       </c>
       <c r="C25" s="2">
-        <v>0.25</v>
+        <v>0.6875</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>4</v>
@@ -920,10 +921,10 @@
         <v>43258</v>
       </c>
       <c r="C26" s="2">
-        <v>0.34375</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -934,7 +935,7 @@
         <v>43258</v>
       </c>
       <c r="C27" s="2">
-        <v>0.6875</v>
+        <v>0.25</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>4</v>
@@ -948,13 +949,10 @@
         <v>43258</v>
       </c>
       <c r="C28" s="2">
-        <v>0.75</v>
+        <v>0.34375</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -965,7 +963,7 @@
         <v>43258</v>
       </c>
       <c r="C29" s="2">
-        <v>0.77083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>4</v>
@@ -979,10 +977,13 @@
         <v>43258</v>
       </c>
       <c r="C30" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -993,7 +994,7 @@
         <v>43258</v>
       </c>
       <c r="C31" s="2">
-        <v>0.26041666666666669</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>4</v>
@@ -1007,10 +1008,10 @@
         <v>43258</v>
       </c>
       <c r="C32" s="2">
-        <v>0.3125</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1021,7 +1022,7 @@
         <v>43258</v>
       </c>
       <c r="C33" s="2">
-        <v>0.67708333333333337</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>4</v>
@@ -1035,7 +1036,7 @@
         <v>43258</v>
       </c>
       <c r="C34" s="2">
-        <v>0.34375</v>
+        <v>0.3125</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>3</v>
@@ -1049,7 +1050,7 @@
         <v>43258</v>
       </c>
       <c r="C35" s="2">
-        <v>0.70833333333333337</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>4</v>
@@ -1063,7 +1064,7 @@
         <v>43258</v>
       </c>
       <c r="C36" s="2">
-        <v>0.3125</v>
+        <v>0.34375</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>3</v>
@@ -1077,7 +1078,7 @@
         <v>43258</v>
       </c>
       <c r="C37" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>4</v>
@@ -1091,21 +1092,39 @@
         <v>43258</v>
       </c>
       <c r="C38" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1000002</v>
+      </c>
+      <c r="B39" s="1">
+        <v>43258</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1000002</v>
+      </c>
+      <c r="B40" s="1">
+        <v>43258</v>
+      </c>
+      <c r="C40" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
@@ -1144,13 +1163,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
@@ -1189,30 +1208,30 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="F58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="F59" s="3"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
@@ -1519,7 +1538,7 @@
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
     </row>
-    <row r="123" spans="2:4" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -1529,7 +1548,7 @@
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:4" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -1675,9 +1694,13 @@
       <c r="D153" s="2"/>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="1"/>
+      <c r="C154" s="2"/>
       <c r="D154" s="2"/>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" s="1"/>
+      <c r="C155" s="2"/>
       <c r="D155" s="2"/>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
@@ -1691,6 +1714,12 @@
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D159" s="2"/>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D160" s="2"/>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1703,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,11 +1742,12 @@
     <col min="9" max="9" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>20</v>

--- a/Extra/ActiPASS-Diary-example.xlsx
+++ b/Extra/ActiPASS-Diary-example.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Bronze\Ergonomiforsk\ActiPASS\Documentation\Diary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pashe866\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13350" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ExampleData" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>ID is a 1 to 10-digit number that must correspond to the last 10 character digits of the intended cwa-file</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>ActiPASS Example diary file - Also See Instructions worksheet</t>
+  </si>
+  <si>
+    <t>ID is the participant ID. Can be numeric or text. Accelerometer filenames should contain this ID (at the start, the end or special ActivPAL format)</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -578,7 +578,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -610,7 +610,7 @@
         <v>0.35069444444444442</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -624,7 +624,7 @@
         <v>0.3520833333333333</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -725,7 +725,7 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
         <v>0.2673611111111111</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -924,7 +924,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,7 +1011,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1123,7 +1123,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1732,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,24 +1744,24 @@
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1771,7 +1771,7 @@
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -1779,57 +1779,57 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
         <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1837,17 +1837,17 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
